--- a/static/企业信息导入模板2.xlsx
+++ b/static/企业信息导入模板2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7515"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,9 @@
 3  注销 
 4  空壳 
 11 内修 
-20 停业</t>
+20 停业
+9  其他
+21 停业无业务</t>
         </r>
       </text>
     </comment>
@@ -236,6 +238,7 @@
 三类:72:空调维修
 三类:73:车辆装潢（篷布坐垫及内装饰）
 三类:74:车辆玻璃安装
+三类:245:汽车润滑与养护
 摩托车维修:75:一类
 摩托车维修:76:二类
 汽车快修:77:A类
@@ -309,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="259">
   <si>
     <r>
       <rPr>
@@ -688,39 +691,7 @@
     <t>企业主要业务范围(编码:说明)(填写编码)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>经营范围详细分类(类别:编码:说明)(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>填写编码</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>经营范围详细分类(类别:编码:说明)(填写编码)</t>
   </si>
   <si>
     <t>山东省</t>
@@ -930,46 +901,61 @@
     <t>平度市</t>
   </si>
   <si>
+    <t>6  整改</t>
+  </si>
+  <si>
+    <t>三类:72:空调维修</t>
+  </si>
+  <si>
+    <t>莱西市</t>
+  </si>
+  <si>
+    <t>7  停业整顿</t>
+  </si>
+  <si>
+    <t>三类:73:车辆装潢（篷布坐垫及内装饰）</t>
+  </si>
+  <si>
+    <t>西海岸新区</t>
+  </si>
+  <si>
     <t xml:space="preserve">11 内修 </t>
   </si>
   <si>
-    <t>三类:72:空调维修</t>
-  </si>
-  <si>
-    <t>莱西市</t>
+    <t>三类:74:车辆玻璃安装</t>
   </si>
   <si>
     <t>20 停业</t>
   </si>
   <si>
-    <t>三类:73:车辆装潢（篷布坐垫及内装饰）</t>
-  </si>
-  <si>
-    <t>西海岸新区</t>
-  </si>
-  <si>
-    <t>三类:74:车辆玻璃安装</t>
+    <t>三类:245:汽车润滑与养护</t>
+  </si>
+  <si>
+    <t>淄博市</t>
+  </si>
+  <si>
+    <t>9 其他</t>
   </si>
   <si>
     <t>摩托车维修:75:一类</t>
   </si>
   <si>
-    <t>淄博市</t>
+    <t>21 停业无业务</t>
   </si>
   <si>
     <t>摩托车维修:76:二类</t>
   </si>
   <si>
+    <t>淄川区</t>
+  </si>
+  <si>
     <t>汽车快修:77:A类</t>
   </si>
   <si>
-    <t>淄川区</t>
+    <t>张店区</t>
   </si>
   <si>
     <t>汽车快修:78:B类</t>
-  </si>
-  <si>
-    <t>张店区</t>
   </si>
   <si>
     <t>博山区</t>
@@ -1367,10 +1353,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="hh:mm"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -1411,44 +1397,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,7 +1419,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1474,11 +1467,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1491,17 +1492,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1521,31 +1514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,6 +1526,22 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1606,13 +1592,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,73 +1622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,73 +1640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,7 +1658,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,17 +1983,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,20 +2027,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2069,28 +2066,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2102,10 +2088,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2114,134 +2100,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2671,41 +2657,41 @@
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="18.75" style="27" customWidth="1"/>
-    <col min="3" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
-    <col min="8" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="24.625" customWidth="1"/>
-    <col min="14" max="15" width="10.375" customWidth="1"/>
-    <col min="16" max="16" width="7.125" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
-    <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="19" max="19" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="28.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.775" style="27" customWidth="1"/>
+    <col min="3" max="4" width="14.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
+    <col min="8" max="9" width="7.10833333333333" customWidth="1"/>
+    <col min="10" max="10" width="5.44166666666667" customWidth="1"/>
+    <col min="11" max="11" width="7.10833333333333" customWidth="1"/>
+    <col min="12" max="12" width="10.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="24.6666666666667" customWidth="1"/>
+    <col min="14" max="15" width="10.3333333333333" customWidth="1"/>
+    <col min="16" max="16" width="7.10833333333333" customWidth="1"/>
+    <col min="17" max="17" width="23.4416666666667" customWidth="1"/>
+    <col min="18" max="18" width="12.6666666666667" customWidth="1"/>
+    <col min="19" max="19" width="21.6666666666667" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="15.125" customWidth="1"/>
-    <col min="22" max="22" width="14.625" customWidth="1"/>
-    <col min="23" max="23" width="21.625" customWidth="1"/>
-    <col min="24" max="24" width="13.875" customWidth="1"/>
-    <col min="25" max="25" width="11.25" customWidth="1"/>
-    <col min="26" max="26" width="19.125" customWidth="1"/>
-    <col min="27" max="27" width="28.375" customWidth="1"/>
-    <col min="28" max="29" width="15.75" customWidth="1"/>
-    <col min="30" max="30" width="8.875" customWidth="1"/>
-    <col min="31" max="31" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="15.1083333333333" customWidth="1"/>
+    <col min="22" max="22" width="14.6666666666667" customWidth="1"/>
+    <col min="23" max="23" width="21.6666666666667" customWidth="1"/>
+    <col min="24" max="24" width="13.8833333333333" customWidth="1"/>
+    <col min="25" max="25" width="11.2166666666667" customWidth="1"/>
+    <col min="26" max="26" width="19.1083333333333" customWidth="1"/>
+    <col min="27" max="27" width="28.3333333333333" customWidth="1"/>
+    <col min="28" max="29" width="15.775" customWidth="1"/>
+    <col min="30" max="30" width="8.88333333333333" customWidth="1"/>
+    <col min="31" max="31" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="16.5" spans="1:31">
+    <row r="1" s="26" customFormat="1" ht="33" spans="1:31">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -2817,20 +2803,20 @@
   <sheetPr/>
   <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.05" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.21666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.2166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.3333333333333" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3392,7 +3378,7 @@
         <v>112</v>
       </c>
       <c r="E35"/>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>113</v>
       </c>
       <c r="G35"/>
@@ -3410,9 +3396,12 @@
         <v>115</v>
       </c>
       <c r="E36"/>
+      <c r="F36" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="G36"/>
       <c r="H36" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:8">
@@ -3425,10 +3414,12 @@
         <v>78</v>
       </c>
       <c r="E37"/>
-      <c r="F37"/>
+      <c r="F37" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="G37"/>
       <c r="H37" s="16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:8">
@@ -3436,15 +3427,17 @@
         <v>3703</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C38"/>
       <c r="D38" s="15"/>
       <c r="E38"/>
-      <c r="F38"/>
+      <c r="F38" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="G38"/>
       <c r="H38" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:8">
@@ -3457,10 +3450,12 @@
         <v>47</v>
       </c>
       <c r="E39"/>
-      <c r="F39"/>
+      <c r="F39" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="G39"/>
       <c r="H39" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:8">
@@ -3470,13 +3465,13 @@
         <v>370302</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" s="17" t="s">
-        <v>122</v>
+      <c r="H40" s="16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:8">
@@ -3486,12 +3481,13 @@
         <v>370303</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E41"/>
-      <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" s="15"/>
+      <c r="H41" s="17" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="42" customHeight="1" spans="1:8">
       <c r="A42" s="14"/>
@@ -3500,62 +3496,67 @@
         <v>370304</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="F42"/>
       <c r="G42" s="20"/>
       <c r="H42" s="21"/>
     </row>
-    <row r="43" customHeight="1" spans="1:4">
+    <row r="43" customHeight="1" spans="1:6">
       <c r="A43" s="14"/>
       <c r="B43"/>
       <c r="C43">
         <v>370305</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:4">
+        <v>130</v>
+      </c>
+      <c r="F43"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:6">
       <c r="A44" s="14"/>
       <c r="B44"/>
       <c r="C44">
         <v>370306</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:4">
+        <v>131</v>
+      </c>
+      <c r="F44"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:6">
       <c r="A45" s="14"/>
       <c r="B45"/>
       <c r="C45">
         <v>370321</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:4">
+        <v>132</v>
+      </c>
+      <c r="F45"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:6">
       <c r="A46" s="14"/>
       <c r="B46"/>
       <c r="C46">
         <v>370322</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:4">
+        <v>133</v>
+      </c>
+      <c r="F46"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:6">
       <c r="A47" s="14"/>
       <c r="B47"/>
       <c r="C47">
         <v>370323</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>129</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F47" s="20"/>
     </row>
     <row r="48" customHeight="1" spans="1:4">
       <c r="A48" s="14"/>
@@ -3572,7 +3573,7 @@
         <v>3704</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C49"/>
       <c r="D49" s="15"/>
@@ -3604,7 +3605,7 @@
         <v>370403</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:4">
@@ -3614,7 +3615,7 @@
         <v>370404</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:4">
@@ -3624,7 +3625,7 @@
         <v>370405</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:4">
@@ -3634,7 +3635,7 @@
         <v>370406</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:4">
@@ -3644,7 +3645,7 @@
         <v>370481</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:4">
@@ -3662,7 +3663,7 @@
         <v>3705</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C58"/>
       <c r="D58" s="15"/>
@@ -3684,7 +3685,7 @@
         <v>370502</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:4">
@@ -3694,7 +3695,7 @@
         <v>370503</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:4">
@@ -3704,7 +3705,7 @@
         <v>370505</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:4">
@@ -3714,7 +3715,7 @@
         <v>370522</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:4">
@@ -3724,7 +3725,7 @@
         <v>370523</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:4">
@@ -3732,7 +3733,7 @@
         <v>3706</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C65"/>
       <c r="D65" s="15"/>
@@ -3754,7 +3755,7 @@
         <v>370602</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:4">
@@ -3764,7 +3765,7 @@
         <v>370611</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:4">
@@ -3774,7 +3775,7 @@
         <v>370612</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:4">
@@ -3784,7 +3785,7 @@
         <v>370613</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:4">
@@ -3794,7 +3795,7 @@
         <v>370634</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:4">
@@ -3804,7 +3805,7 @@
         <v>370681</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
@@ -3814,7 +3815,7 @@
         <v>370682</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
@@ -3824,7 +3825,7 @@
         <v>370683</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
@@ -3834,7 +3835,7 @@
         <v>370684</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
@@ -3844,7 +3845,7 @@
         <v>370685</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:4">
@@ -3854,7 +3855,7 @@
         <v>370686</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:4">
@@ -3864,7 +3865,7 @@
         <v>370687</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:4">
@@ -3884,7 +3885,7 @@
         <v>370689</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
@@ -3892,7 +3893,7 @@
         <v>3707</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C81"/>
       <c r="D81" s="15"/>
@@ -3914,7 +3915,7 @@
         <v>370702</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:4">
@@ -3924,7 +3925,7 @@
         <v>370703</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:4">
@@ -3934,7 +3935,7 @@
         <v>370704</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:4">
@@ -3944,7 +3945,7 @@
         <v>370705</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:4">
@@ -3954,7 +3955,7 @@
         <v>370724</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:4">
@@ -3964,7 +3965,7 @@
         <v>370725</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:4">
@@ -3974,7 +3975,7 @@
         <v>370781</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:4">
@@ -3984,7 +3985,7 @@
         <v>370782</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:4">
@@ -3994,7 +3995,7 @@
         <v>370783</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:4">
@@ -4004,7 +4005,7 @@
         <v>370784</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:4">
@@ -4014,7 +4015,7 @@
         <v>370785</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:4">
@@ -4024,7 +4025,7 @@
         <v>370786</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:4">
@@ -4042,7 +4043,7 @@
         <v>3708</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C96"/>
       <c r="D96" s="15"/>
@@ -4064,7 +4065,7 @@
         <v>370811</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
@@ -4074,7 +4075,7 @@
         <v>370812</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
@@ -4084,7 +4085,7 @@
         <v>370826</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:4">
@@ -4094,7 +4095,7 @@
         <v>370827</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" customHeight="1" spans="1:4">
@@ -4104,7 +4105,7 @@
         <v>370828</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" customHeight="1" spans="1:4">
@@ -4114,7 +4115,7 @@
         <v>370829</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" customHeight="1" spans="1:4">
@@ -4124,7 +4125,7 @@
         <v>370830</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" customHeight="1" spans="1:4">
@@ -4134,7 +4135,7 @@
         <v>370831</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" customHeight="1" spans="1:4">
@@ -4144,7 +4145,7 @@
         <v>370832</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:4">
@@ -4154,7 +4155,7 @@
         <v>370881</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:4">
@@ -4164,7 +4165,7 @@
         <v>370883</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="1:4">
@@ -4182,7 +4183,7 @@
         <v>3709</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C110"/>
       <c r="D110" s="15"/>
@@ -4204,7 +4205,7 @@
         <v>370902</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="113" customHeight="1" spans="1:4">
@@ -4214,7 +4215,7 @@
         <v>370911</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" customHeight="1" spans="1:4">
@@ -4224,7 +4225,7 @@
         <v>370921</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" customHeight="1" spans="1:4">
@@ -4234,7 +4235,7 @@
         <v>370923</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" customHeight="1" spans="1:4">
@@ -4244,7 +4245,7 @@
         <v>370982</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" customHeight="1" spans="1:4">
@@ -4254,7 +4255,7 @@
         <v>370983</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" customHeight="1" spans="1:4">
@@ -4262,7 +4263,7 @@
         <v>3710</v>
       </c>
       <c r="B118" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C118"/>
       <c r="D118" s="15"/>
@@ -4284,7 +4285,7 @@
         <v>371002</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" customHeight="1" spans="1:4">
@@ -4294,7 +4295,7 @@
         <v>371003</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" customHeight="1" spans="1:4">
@@ -4304,7 +4305,7 @@
         <v>371082</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" customHeight="1" spans="1:4">
@@ -4314,7 +4315,7 @@
         <v>371083</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" customHeight="1" spans="1:4">
@@ -4322,7 +4323,7 @@
         <v>3711</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C124"/>
       <c r="D124" s="15"/>
@@ -4344,7 +4345,7 @@
         <v>371102</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" customHeight="1" spans="1:4">
@@ -4354,7 +4355,7 @@
         <v>371103</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" customHeight="1" spans="1:4">
@@ -4364,7 +4365,7 @@
         <v>371121</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="129" customHeight="1" spans="1:4">
@@ -4374,7 +4375,7 @@
         <v>371122</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" customHeight="1" spans="1:4">
@@ -4382,7 +4383,7 @@
         <v>3712</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C130"/>
       <c r="D130" s="15"/>
@@ -4404,7 +4405,7 @@
         <v>371202</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
@@ -4414,7 +4415,7 @@
         <v>371203</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
@@ -4422,7 +4423,7 @@
         <v>3713</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C134"/>
       <c r="D134" s="15"/>
@@ -4444,7 +4445,7 @@
         <v>371302</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" customHeight="1" spans="1:4">
@@ -4454,7 +4455,7 @@
         <v>371311</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" customHeight="1" spans="1:4">
@@ -4464,7 +4465,7 @@
         <v>371312</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="139" customHeight="1" spans="1:4">
@@ -4474,7 +4475,7 @@
         <v>371321</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="140" customHeight="1" spans="1:4">
@@ -4484,7 +4485,7 @@
         <v>371322</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" customHeight="1" spans="1:4">
@@ -4494,7 +4495,7 @@
         <v>371323</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" customHeight="1" spans="1:4">
@@ -4504,7 +4505,7 @@
         <v>371324</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" customHeight="1" spans="1:4">
@@ -4514,7 +4515,7 @@
         <v>371325</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" customHeight="1" spans="1:4">
@@ -4524,7 +4525,7 @@
         <v>371326</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:4">
@@ -4534,7 +4535,7 @@
         <v>371327</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="146" customHeight="1" spans="1:4">
@@ -4544,7 +4545,7 @@
         <v>371328</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" customHeight="1" spans="1:4">
@@ -4554,7 +4555,7 @@
         <v>371329</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="148" customHeight="1" spans="1:4">
@@ -4562,7 +4563,7 @@
         <v>3714</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C148"/>
       <c r="D148" s="15"/>
@@ -4584,7 +4585,7 @@
         <v>371402</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:4">
@@ -4594,7 +4595,7 @@
         <v>371403</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:4">
@@ -4604,7 +4605,7 @@
         <v>371422</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="153" customHeight="1" spans="1:4">
@@ -4614,7 +4615,7 @@
         <v>371423</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="154" customHeight="1" spans="1:4">
@@ -4624,7 +4625,7 @@
         <v>371424</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" customHeight="1" spans="1:4">
@@ -4634,7 +4635,7 @@
         <v>371425</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:4">
@@ -4644,7 +4645,7 @@
         <v>371426</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:4">
@@ -4654,7 +4655,7 @@
         <v>371427</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="158" customHeight="1" spans="1:4">
@@ -4664,7 +4665,7 @@
         <v>371428</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:4">
@@ -4674,7 +4675,7 @@
         <v>371481</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:4">
@@ -4684,7 +4685,7 @@
         <v>371482</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="161" customHeight="1" spans="1:4">
@@ -4692,7 +4693,7 @@
         <v>3715</v>
       </c>
       <c r="B161" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C161"/>
       <c r="D161" s="15"/>
@@ -4714,7 +4715,7 @@
         <v>371502</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:4">
@@ -4724,7 +4725,7 @@
         <v>371521</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:4">
@@ -4734,7 +4735,7 @@
         <v>371522</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:4">
@@ -4744,7 +4745,7 @@
         <v>371523</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" customHeight="1" spans="1:4">
@@ -4754,7 +4755,7 @@
         <v>371524</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:4">
@@ -4764,7 +4765,7 @@
         <v>371525</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:4">
@@ -4774,7 +4775,7 @@
         <v>371526</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:4">
@@ -4784,7 +4785,7 @@
         <v>371581</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="171" customHeight="1" spans="1:4">
@@ -4792,7 +4793,7 @@
         <v>3716</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C171"/>
       <c r="D171" s="15"/>
@@ -4814,7 +4815,7 @@
         <v>371602</v>
       </c>
       <c r="D173" s="15" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:4">
@@ -4824,7 +4825,7 @@
         <v>371603</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:4">
@@ -4834,7 +4835,7 @@
         <v>371621</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" customHeight="1" spans="1:4">
@@ -4844,7 +4845,7 @@
         <v>371622</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" customHeight="1" spans="1:4">
@@ -4854,7 +4855,7 @@
         <v>371623</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:4">
@@ -4864,7 +4865,7 @@
         <v>371625</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:4">
@@ -4874,7 +4875,7 @@
         <v>371626</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:4">
@@ -4884,7 +4885,7 @@
         <v>371627</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:4">
@@ -4892,7 +4893,7 @@
         <v>3717</v>
       </c>
       <c r="B181" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C181"/>
       <c r="D181" s="15"/>
@@ -4912,7 +4913,7 @@
         <v>371702</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" customHeight="1" spans="1:4">
@@ -4921,7 +4922,7 @@
         <v>371703</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="185" customHeight="1" spans="1:4">
@@ -4930,7 +4931,7 @@
         <v>371721</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="186" customHeight="1" spans="1:4">
@@ -4939,7 +4940,7 @@
         <v>371722</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="187" customHeight="1" spans="1:4">
@@ -4948,7 +4949,7 @@
         <v>371723</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="1:4">
@@ -4957,7 +4958,7 @@
         <v>371724</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" customHeight="1" spans="1:4">
@@ -4966,7 +4967,7 @@
         <v>371725</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190" customHeight="1" spans="1:4">
@@ -4975,7 +4976,7 @@
         <v>371726</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" customHeight="1" spans="1:4">
@@ -4985,7 +4986,7 @@
         <v>371728</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5011,8 +5012,8 @@
   <sheetPr/>
   <dimension ref="A1:B182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -5246,7 +5247,7 @@
         <v>370300</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5262,7 +5263,7 @@
         <v>370302</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5270,7 +5271,7 @@
         <v>370303</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5278,7 +5279,7 @@
         <v>370304</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5286,7 +5287,7 @@
         <v>370305</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5294,7 +5295,7 @@
         <v>370306</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5302,7 +5303,7 @@
         <v>370321</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5310,7 +5311,7 @@
         <v>370322</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5318,7 +5319,7 @@
         <v>370323</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5334,7 +5335,7 @@
         <v>370400</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -5358,7 +5359,7 @@
         <v>370403</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -5366,7 +5367,7 @@
         <v>370404</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -5374,7 +5375,7 @@
         <v>370405</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5382,7 +5383,7 @@
         <v>370406</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -5390,7 +5391,7 @@
         <v>370481</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -5406,7 +5407,7 @@
         <v>370500</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -5422,7 +5423,7 @@
         <v>370502</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -5430,7 +5431,7 @@
         <v>370503</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -5438,7 +5439,7 @@
         <v>370505</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -5446,7 +5447,7 @@
         <v>370522</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -5454,7 +5455,7 @@
         <v>370523</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -5462,7 +5463,7 @@
         <v>370600</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -5478,7 +5479,7 @@
         <v>370602</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -5486,7 +5487,7 @@
         <v>370611</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -5494,7 +5495,7 @@
         <v>370612</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -5502,7 +5503,7 @@
         <v>370613</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5510,7 +5511,7 @@
         <v>370634</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5518,7 +5519,7 @@
         <v>370681</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5526,7 +5527,7 @@
         <v>370682</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5534,7 +5535,7 @@
         <v>370683</v>
       </c>
       <c r="B65" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5542,7 +5543,7 @@
         <v>370684</v>
       </c>
       <c r="B66" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5550,7 +5551,7 @@
         <v>370685</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5558,7 +5559,7 @@
         <v>370686</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5566,7 +5567,7 @@
         <v>370687</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5582,7 +5583,7 @@
         <v>370689</v>
       </c>
       <c r="B71" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5590,7 +5591,7 @@
         <v>370700</v>
       </c>
       <c r="B72" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5606,7 +5607,7 @@
         <v>370702</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5614,7 +5615,7 @@
         <v>370703</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5622,7 +5623,7 @@
         <v>370704</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5630,7 +5631,7 @@
         <v>370705</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5638,7 +5639,7 @@
         <v>370724</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5646,7 +5647,7 @@
         <v>370725</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5654,7 +5655,7 @@
         <v>370781</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5662,7 +5663,7 @@
         <v>370782</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5670,7 +5671,7 @@
         <v>370783</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5678,7 +5679,7 @@
         <v>370784</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5686,7 +5687,7 @@
         <v>370785</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5694,7 +5695,7 @@
         <v>370786</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5710,7 +5711,7 @@
         <v>370800</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5726,7 +5727,7 @@
         <v>370811</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5734,7 +5735,7 @@
         <v>370812</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5742,7 +5743,7 @@
         <v>370826</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5750,7 +5751,7 @@
         <v>370827</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5758,7 +5759,7 @@
         <v>370828</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5766,7 +5767,7 @@
         <v>370829</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5774,7 +5775,7 @@
         <v>370830</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5782,7 +5783,7 @@
         <v>370831</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5790,7 +5791,7 @@
         <v>370832</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5798,7 +5799,7 @@
         <v>370881</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5806,7 +5807,7 @@
         <v>370883</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5822,7 +5823,7 @@
         <v>370900</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5838,7 +5839,7 @@
         <v>370902</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5846,7 +5847,7 @@
         <v>370911</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5854,7 +5855,7 @@
         <v>370921</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5862,7 +5863,7 @@
         <v>370923</v>
       </c>
       <c r="B106" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5870,7 +5871,7 @@
         <v>370982</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5878,7 +5879,7 @@
         <v>370983</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5886,7 +5887,7 @@
         <v>371000</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5902,7 +5903,7 @@
         <v>371002</v>
       </c>
       <c r="B111" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5910,7 +5911,7 @@
         <v>371003</v>
       </c>
       <c r="B112" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5918,7 +5919,7 @@
         <v>371082</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5926,7 +5927,7 @@
         <v>371083</v>
       </c>
       <c r="B114" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5934,7 +5935,7 @@
         <v>371100</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5950,7 +5951,7 @@
         <v>371102</v>
       </c>
       <c r="B117" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5958,7 +5959,7 @@
         <v>371103</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5966,7 +5967,7 @@
         <v>371121</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5974,7 +5975,7 @@
         <v>371122</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5982,7 +5983,7 @@
         <v>371200</v>
       </c>
       <c r="B121" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5998,7 +5999,7 @@
         <v>371202</v>
       </c>
       <c r="B123" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -6006,7 +6007,7 @@
         <v>371203</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -6014,7 +6015,7 @@
         <v>371300</v>
       </c>
       <c r="B125" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -6030,7 +6031,7 @@
         <v>371302</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -6038,7 +6039,7 @@
         <v>371311</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -6046,7 +6047,7 @@
         <v>371312</v>
       </c>
       <c r="B129" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -6054,7 +6055,7 @@
         <v>371321</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -6062,7 +6063,7 @@
         <v>371322</v>
       </c>
       <c r="B131" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -6070,7 +6071,7 @@
         <v>371323</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -6078,7 +6079,7 @@
         <v>371324</v>
       </c>
       <c r="B133" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -6086,7 +6087,7 @@
         <v>371325</v>
       </c>
       <c r="B134" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -6094,7 +6095,7 @@
         <v>371326</v>
       </c>
       <c r="B135" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -6102,7 +6103,7 @@
         <v>371327</v>
       </c>
       <c r="B136" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -6110,7 +6111,7 @@
         <v>371328</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -6118,7 +6119,7 @@
         <v>371329</v>
       </c>
       <c r="B138" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -6126,7 +6127,7 @@
         <v>371400</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -6142,7 +6143,7 @@
         <v>371402</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -6150,7 +6151,7 @@
         <v>371403</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -6158,7 +6159,7 @@
         <v>371422</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -6166,7 +6167,7 @@
         <v>371423</v>
       </c>
       <c r="B144" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -6174,7 +6175,7 @@
         <v>371424</v>
       </c>
       <c r="B145" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -6182,7 +6183,7 @@
         <v>371425</v>
       </c>
       <c r="B146" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -6190,7 +6191,7 @@
         <v>371426</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -6198,7 +6199,7 @@
         <v>371427</v>
       </c>
       <c r="B148" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -6206,7 +6207,7 @@
         <v>371428</v>
       </c>
       <c r="B149" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -6214,7 +6215,7 @@
         <v>371481</v>
       </c>
       <c r="B150" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -6222,7 +6223,7 @@
         <v>371482</v>
       </c>
       <c r="B151" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -6230,7 +6231,7 @@
         <v>371500</v>
       </c>
       <c r="B152" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -6246,7 +6247,7 @@
         <v>371502</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -6254,7 +6255,7 @@
         <v>371521</v>
       </c>
       <c r="B155" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -6262,7 +6263,7 @@
         <v>371522</v>
       </c>
       <c r="B156" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -6270,7 +6271,7 @@
         <v>371523</v>
       </c>
       <c r="B157" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -6278,7 +6279,7 @@
         <v>371524</v>
       </c>
       <c r="B158" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -6286,7 +6287,7 @@
         <v>371525</v>
       </c>
       <c r="B159" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -6294,7 +6295,7 @@
         <v>371526</v>
       </c>
       <c r="B160" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -6302,7 +6303,7 @@
         <v>371581</v>
       </c>
       <c r="B161" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -6310,7 +6311,7 @@
         <v>371600</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -6326,7 +6327,7 @@
         <v>371602</v>
       </c>
       <c r="B164" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -6334,7 +6335,7 @@
         <v>371603</v>
       </c>
       <c r="B165" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -6342,7 +6343,7 @@
         <v>371621</v>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -6350,7 +6351,7 @@
         <v>371622</v>
       </c>
       <c r="B167" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -6358,7 +6359,7 @@
         <v>371623</v>
       </c>
       <c r="B168" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -6366,7 +6367,7 @@
         <v>371625</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -6374,7 +6375,7 @@
         <v>371626</v>
       </c>
       <c r="B170" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -6382,7 +6383,7 @@
         <v>371627</v>
       </c>
       <c r="B171" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -6390,7 +6391,7 @@
         <v>371700</v>
       </c>
       <c r="B172" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -6406,7 +6407,7 @@
         <v>371702</v>
       </c>
       <c r="B174" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -6414,7 +6415,7 @@
         <v>371703</v>
       </c>
       <c r="B175" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -6422,7 +6423,7 @@
         <v>371721</v>
       </c>
       <c r="B176" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -6430,7 +6431,7 @@
         <v>371722</v>
       </c>
       <c r="B177" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -6438,7 +6439,7 @@
         <v>371723</v>
       </c>
       <c r="B178" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -6446,7 +6447,7 @@
         <v>371724</v>
       </c>
       <c r="B179" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -6454,7 +6455,7 @@
         <v>371725</v>
       </c>
       <c r="B180" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -6462,7 +6463,7 @@
         <v>371726</v>
       </c>
       <c r="B181" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -6470,7 +6471,7 @@
         <v>371728</v>
       </c>
       <c r="B182" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/static/企业信息导入模板2.xlsx
+++ b/static/企业信息导入模板2.xlsx
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="261">
   <si>
     <r>
       <rPr>
@@ -1347,15 +1347,21 @@
   <si>
     <t>东明县</t>
   </si>
+  <si>
+    <t>滨海区</t>
+  </si>
+  <si>
+    <t>峡山区</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="hh:mm"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -1396,15 +1402,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,26 +1433,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1448,8 +1456,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1467,9 +1490,38 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1483,65 +1535,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1592,13 +1598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,7 +1634,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,7 +1688,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1652,115 +1766,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,7 +1778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1983,13 +1989,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2003,11 +2013,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,32 +2043,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2060,8 +2057,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2080,6 +2077,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2088,10 +2094,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2100,134 +2106,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2657,7 +2663,7 @@
   <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="14.25"/>
@@ -2788,8 +2794,8 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 L2:L1048576">
-      <formula1>区域编码!$A$1:$A$182</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2 F2:F1048576 L3:L1048576">
+      <formula1>区域编码!$A$1:$A$184</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5010,10 +5016,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -5652,825 +5658,841 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>370781</v>
+        <v>370740</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>370782</v>
+        <v>370742</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>370783</v>
+        <v>370781</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>370784</v>
+        <v>370782</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>370785</v>
+        <v>370783</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>370786</v>
+        <v>370784</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>370787</v>
+        <v>370785</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>370800</v>
+        <v>370786</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>370801</v>
+        <v>370787</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>370811</v>
+        <v>370800</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>370812</v>
+        <v>370801</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>370826</v>
+        <v>370811</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>370827</v>
+        <v>370812</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>370828</v>
+        <v>370826</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>370829</v>
+        <v>370827</v>
       </c>
       <c r="B94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>370830</v>
+        <v>370828</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>370831</v>
+        <v>370829</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>370832</v>
+        <v>370830</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>370881</v>
+        <v>370831</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>370883</v>
+        <v>370832</v>
       </c>
       <c r="B99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>370884</v>
+        <v>370881</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>370900</v>
+        <v>370883</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>370901</v>
+        <v>370884</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>370902</v>
+        <v>370900</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>370911</v>
+        <v>370901</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>370921</v>
+        <v>370902</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>370923</v>
+        <v>370911</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>370982</v>
+        <v>370921</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>370983</v>
+        <v>370923</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>371000</v>
+        <v>370982</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>371001</v>
+        <v>370983</v>
       </c>
       <c r="B110" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>371002</v>
+        <v>371000</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>371003</v>
+        <v>371001</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>371082</v>
+        <v>371002</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>371083</v>
+        <v>371003</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>371100</v>
+        <v>371082</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>371101</v>
+        <v>371083</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>371102</v>
+        <v>371100</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>371103</v>
+        <v>371101</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>371121</v>
+        <v>371102</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>371122</v>
+        <v>371103</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>371200</v>
+        <v>371121</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>371201</v>
+        <v>371122</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>371202</v>
+        <v>371200</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>371203</v>
+        <v>371201</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>371300</v>
+        <v>371202</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>371301</v>
+        <v>371203</v>
       </c>
       <c r="B126" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>371302</v>
+        <v>371300</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>371311</v>
+        <v>371301</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>371312</v>
+        <v>371302</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>371321</v>
+        <v>371311</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>371322</v>
+        <v>371312</v>
       </c>
       <c r="B131" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>371323</v>
+        <v>371321</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>371324</v>
+        <v>371322</v>
       </c>
       <c r="B133" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>371325</v>
+        <v>371323</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>371326</v>
+        <v>371324</v>
       </c>
       <c r="B135" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>371327</v>
+        <v>371325</v>
       </c>
       <c r="B136" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>371328</v>
+        <v>371326</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>371329</v>
+        <v>371327</v>
       </c>
       <c r="B138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>371400</v>
+        <v>371328</v>
       </c>
       <c r="B139" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>371401</v>
+        <v>371329</v>
       </c>
       <c r="B140" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>371402</v>
+        <v>371400</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>371403</v>
+        <v>371401</v>
       </c>
       <c r="B142" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>371422</v>
+        <v>371402</v>
       </c>
       <c r="B143" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>371423</v>
+        <v>371403</v>
       </c>
       <c r="B144" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>371424</v>
+        <v>371422</v>
       </c>
       <c r="B145" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>371425</v>
+        <v>371423</v>
       </c>
       <c r="B146" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>371426</v>
+        <v>371424</v>
       </c>
       <c r="B147" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>371427</v>
+        <v>371425</v>
       </c>
       <c r="B148" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>371428</v>
+        <v>371426</v>
       </c>
       <c r="B149" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>371481</v>
+        <v>371427</v>
       </c>
       <c r="B150" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>371482</v>
+        <v>371428</v>
       </c>
       <c r="B151" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>371500</v>
+        <v>371481</v>
       </c>
       <c r="B152" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>371501</v>
+        <v>371482</v>
       </c>
       <c r="B153" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>371502</v>
+        <v>371500</v>
       </c>
       <c r="B154" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>371521</v>
+        <v>371501</v>
       </c>
       <c r="B155" t="s">
-        <v>233</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>371522</v>
+        <v>371502</v>
       </c>
       <c r="B156" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>371523</v>
+        <v>371521</v>
       </c>
       <c r="B157" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>371524</v>
+        <v>371522</v>
       </c>
       <c r="B158" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>371525</v>
+        <v>371523</v>
       </c>
       <c r="B159" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>371526</v>
+        <v>371524</v>
       </c>
       <c r="B160" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>371581</v>
+        <v>371525</v>
       </c>
       <c r="B161" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>371600</v>
+        <v>371526</v>
       </c>
       <c r="B162" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>371601</v>
+        <v>371581</v>
       </c>
       <c r="B163" t="s">
-        <v>47</v>
+        <v>239</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>371602</v>
+        <v>371600</v>
       </c>
       <c r="B164" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>371603</v>
+        <v>371601</v>
       </c>
       <c r="B165" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>371621</v>
+        <v>371602</v>
       </c>
       <c r="B166" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>371622</v>
+        <v>371603</v>
       </c>
       <c r="B167" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>371623</v>
+        <v>371621</v>
       </c>
       <c r="B168" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>371625</v>
+        <v>371622</v>
       </c>
       <c r="B169" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>371626</v>
+        <v>371623</v>
       </c>
       <c r="B170" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>371627</v>
+        <v>371625</v>
       </c>
       <c r="B171" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>371700</v>
+        <v>371626</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>371701</v>
+        <v>371627</v>
       </c>
       <c r="B173" t="s">
-        <v>47</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>371702</v>
+        <v>371700</v>
       </c>
       <c r="B174" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>371703</v>
+        <v>371701</v>
       </c>
       <c r="B175" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>371721</v>
+        <v>371702</v>
       </c>
       <c r="B176" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>371722</v>
+        <v>371703</v>
       </c>
       <c r="B177" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>371723</v>
+        <v>371721</v>
       </c>
       <c r="B178" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>371724</v>
+        <v>371722</v>
       </c>
       <c r="B179" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>371725</v>
+        <v>371723</v>
       </c>
       <c r="B180" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>371726</v>
+        <v>371724</v>
       </c>
       <c r="B181" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
+        <v>371725</v>
+      </c>
+      <c r="B182" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>371726</v>
+      </c>
+      <c r="B183" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
         <v>371728</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B184" t="s">
         <v>258</v>
       </c>
     </row>
